--- a/order/1b3o_regeneration.cand.guideRNAs.xlsx
+++ b/order/1b3o_regeneration.cand.guideRNAs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liu3zhen/Documents/GitHub/HTcrispr/order/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2472AC84-2CC1-CA48-BA1F-612588E728C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{6C8C994B-B6FD-D840-AFDB-38C254AA2A26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="1720" windowWidth="50000" windowHeight="22980" activeTab="1"/>
   </bookViews>
@@ -5770,7 +5770,7 @@
   <dimension ref="A1:C74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="214" zoomScaleNormal="214" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
